--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1244952.850421062</v>
+        <v>1279008.168850631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453904</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668068</v>
+        <v>4028287.523710871</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7255972.197685483</v>
+        <v>7671771.456933504</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>327.788702013188</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>216.7951046704923</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +834,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>54.68688746169127</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -914,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>30.37593634770247</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.55990909157806</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059088</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.12056764986438</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1142,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>178.8846941420544</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>65.42520756919171</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.63454431684404</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>235.168823803877</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50.04031316175792</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>16.55447303929008</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>168.9216361858833</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.490924548432452</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>135.1707626729762</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2254,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>54.68688746169129</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2326,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>21.87660945727648</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>142.535930338006</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>92.80744320528898</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>166.7165542762725</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>17.28329306462838</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2968,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>170.7879507721958</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3247,10 +3249,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>68.09295918562108</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>304.7162152260364</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.98329378456244</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -3478,16 +3480,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,10 +3511,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3554,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>31.9901801406238</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>105.8745427447691</v>
       </c>
       <c r="F40" t="n">
-        <v>106.9706214097036</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3745,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>290.1142133145179</v>
+        <v>264.8812777537878</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3901,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>92.54811727372233</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>58.8776823612798</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>366.8515715290489</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3992,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>30.37593634770202</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4135,13 +4137,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>108.594326593059</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>71.02273025732434</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2104.410343246269</v>
+        <v>1125.848704289529</v>
       </c>
       <c r="C2" t="n">
-        <v>2104.410343246269</v>
+        <v>715.7241136027993</v>
       </c>
       <c r="D2" t="n">
-        <v>1699.94641333933</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="E2" t="n">
-        <v>1285.606197856226</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="F2" t="n">
-        <v>864.5757858099139</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>278.4093671505278</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>991.0007669627659</v>
+        <v>1265.421903330477</v>
       </c>
       <c r="M2" t="n">
-        <v>991.0007669627659</v>
+        <v>2041.74049432223</v>
       </c>
       <c r="N2" t="n">
-        <v>1716.017882351039</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="O2" t="n">
-        <v>2359.648738768144</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>2888.805436687295</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>2707.155598323719</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V2" t="n">
-        <v>2488.170644111101</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W2" t="n">
-        <v>2104.410343246269</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X2" t="n">
-        <v>2104.410343246269</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y2" t="n">
-        <v>2104.410343246269</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>1338.679142791659</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>1999.767314710947</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M3" t="n">
-        <v>2579.517617692877</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N3" t="n">
-        <v>2579.517617692877</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O3" t="n">
-        <v>2579.517617692877</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.2068711227912</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>766.1134986845077</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>606.6188540074177</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>445.7080388757371</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>281.0769129863284</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>113.8265219118718</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>1349.642276128071</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y4" t="n">
-        <v>1124.906577516836</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2514.534933932999</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C5" t="n">
-        <v>2104.410343246269</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D5" t="n">
-        <v>1699.94641333933</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E5" t="n">
-        <v>1285.606197856226</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F5" t="n">
-        <v>864.5757858099139</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G5" t="n">
-        <v>455.8475017027461</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>82.5489496814065</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L5" t="n">
-        <v>795.1403494936445</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M5" t="n">
-        <v>1520.157464881917</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N5" t="n">
-        <v>2245.17458027019</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O5" t="n">
-        <v>2888.805436687295</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V5" t="n">
-        <v>2929.36208237686</v>
+        <v>3655.113097377279</v>
       </c>
       <c r="W5" t="n">
-        <v>2929.36208237686</v>
+        <v>3655.113097377279</v>
       </c>
       <c r="X5" t="n">
-        <v>2929.36208237686</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="Y5" t="n">
-        <v>2924.756113597488</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.481669832124</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.481669832124</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.5872416475372</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U7" t="n">
-        <v>793.9747653465236</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V7" t="n">
-        <v>520.0890202860455</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W7" t="n">
-        <v>241.0193557949199</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X7" t="n">
-        <v>58.5872416475372</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.5872416475372</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1708.546389770622</v>
+        <v>1483.336263548569</v>
       </c>
       <c r="C8" t="n">
-        <v>1298.421799083892</v>
+        <v>1073.211672861839</v>
       </c>
       <c r="D8" t="n">
-        <v>893.957869176953</v>
+        <v>668.7477429548999</v>
       </c>
       <c r="E8" t="n">
-        <v>479.6176536938497</v>
+        <v>254.4075274717966</v>
       </c>
       <c r="F8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>726.1798060985113</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L8" t="n">
-        <v>1438.771205910749</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M8" t="n">
-        <v>2163.788321299022</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N8" t="n">
-        <v>2888.805436687295</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O8" t="n">
-        <v>2888.805436687295</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P8" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>2929.36208237686</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V8" t="n">
-        <v>2929.36208237686</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W8" t="n">
-        <v>2545.601781512029</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X8" t="n">
-        <v>2144.958383680981</v>
+        <v>2294.494116264969</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.021710629071</v>
+        <v>1893.557443213059</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>719.6754135668255</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>1401.119346952143</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.119346952143</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W10" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X10" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y10" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1699.94641333933</v>
+        <v>1125.848704289529</v>
       </c>
       <c r="C11" t="n">
-        <v>1699.94641333933</v>
+        <v>715.7241136027993</v>
       </c>
       <c r="D11" t="n">
-        <v>1699.94641333933</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="E11" t="n">
-        <v>1285.606197856226</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="F11" t="n">
-        <v>864.5757858099139</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="G11" t="n">
-        <v>455.8475017027461</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="H11" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>1309.338142568815</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>2034.355257957088</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2759.372373345361</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
-        <v>2759.372373345361</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P11" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V11" t="n">
-        <v>2929.36208237686</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W11" t="n">
-        <v>2545.601781512029</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X11" t="n">
-        <v>2144.958383680981</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.021710629071</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N12" t="n">
-        <v>1508.621472424083</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>889.3647629475029</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>718.2713905092194</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>667.7256196387568</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8148045070764</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>342.1836786176676</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1401.594370148297</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1401.594370148297</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U13" t="n">
-        <v>1401.594370148297</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V13" t="n">
-        <v>1127.708625087819</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W13" t="n">
-        <v>1127.708625087819</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X13" t="n">
-        <v>889.3647629475029</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3647629475029</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>455.8475017027461</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C14" t="n">
-        <v>455.8475017027461</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D14" t="n">
-        <v>455.8475017027461</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E14" t="n">
-        <v>455.8475017027461</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F14" t="n">
-        <v>455.8475017027461</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>312.7727131152915</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>1025.36411292753</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>1394.856875555747</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>1394.856875555747</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O14" t="n">
-        <v>2038.487731972852</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P14" t="n">
-        <v>2567.644429892003</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2401.246607778544</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>2051.409053115025</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W14" t="n">
-        <v>1667.648752250193</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X14" t="n">
-        <v>1267.005354419146</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y14" t="n">
-        <v>866.0686813672355</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N15" t="n">
-        <v>1508.621472424083</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C18" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D18" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E18" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F18" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G18" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H18" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I18" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>3276.783860599928</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>3276.783860599928</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>3396.521901496716</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S18" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T18" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U18" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V18" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W18" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X18" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y18" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>266.8531555313633</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>95.75978309307982</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>95.75978309307982</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>95.75978309307982</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>95.75978309307982</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W19" t="n">
-        <v>547.3402982826956</v>
+        <v>917.6324226769595</v>
       </c>
       <c r="X19" t="n">
-        <v>308.996436142379</v>
+        <v>679.288560536643</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>454.5528619254077</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5752,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5777,10 +5779,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
         <v>4494.590496051882</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L21" t="n">
-        <v>286.056555253256</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M21" t="n">
-        <v>286.056555253256</v>
+        <v>3084.569701873628</v>
       </c>
       <c r="N21" t="n">
-        <v>494.6659264600851</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O21" t="n">
-        <v>1198.623017005979</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.6240469015422</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="C22" t="n">
-        <v>745.5306744632587</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5941,19 +5943,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>1567.403314047138</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X22" t="n">
-        <v>1329.059451906822</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y22" t="n">
-        <v>1104.323753295587</v>
+        <v>827.6148396568026</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5974,10 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
         <v>404.1521950629048</v>
@@ -6072,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>423.0977207349383</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.074801429505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N24" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>548.5451751656769</v>
+        <v>4105.773792315753</v>
       </c>
       <c r="C25" t="n">
-        <v>548.5451751656769</v>
+        <v>3934.680419877469</v>
       </c>
       <c r="D25" t="n">
-        <v>548.5451751656769</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E25" t="n">
-        <v>548.5451751656769</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>4518.209197321033</v>
       </c>
       <c r="Y25" t="n">
-        <v>548.5451751656769</v>
+        <v>4293.473498709797</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6254,22 +6256,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6314,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4144.771357899697</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C28" t="n">
         <v>4051.026465773143</v>
@@ -6406,28 +6408,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="Y28" t="n">
-        <v>4144.771357899697</v>
+        <v>4222.119838211426</v>
       </c>
     </row>
     <row r="29">
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>912.5960014402549</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>1100.295707834299</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4354.390727737164</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4097.330235996674</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6785,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3624.284820157343</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3453.19144771906</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3293.69680304197</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>4379.386737077264</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>4105.500992016786</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>4036.720225162623</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>4036.720225162623</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>3811.984526551388</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2459.725286714852</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C35" t="n">
-        <v>2049.600696028122</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D35" t="n">
-        <v>1645.136766121183</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E35" t="n">
-        <v>1230.796550638079</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F35" t="n">
-        <v>809.7661385917668</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>401.0378544845989</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4405.12439279065</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V35" t="n">
-        <v>4055.286838127131</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W35" t="n">
-        <v>3671.526537262299</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X35" t="n">
-        <v>3270.883139431251</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y35" t="n">
-        <v>2869.946466379341</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>3084.569701873628</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.13812587521</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.702087168085</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U37" t="n">
-        <v>1196.702087168085</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V37" t="n">
-        <v>1196.702087168085</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W37" t="n">
-        <v>1196.702087168085</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X37" t="n">
-        <v>1196.702087168085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.702087168085</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
         <v>899.2322418529996</v>
@@ -7175,49 +7177,49 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674161</v>
       </c>
       <c r="L38" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079654</v>
       </c>
       <c r="M38" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325239</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.903809325239</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L39" t="n">
-        <v>423.0977207349383</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>692.7936626747511</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="C40" t="n">
-        <v>521.7002902364676</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="D40" t="n">
-        <v>362.2056455593776</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="E40" t="n">
-        <v>201.2948304276971</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W40" t="n">
-        <v>1343.572929820347</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="X40" t="n">
-        <v>1105.229067680031</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.4933690687955</v>
+        <v>798.0226983151792</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>761.7564922479216</v>
+        <v>1483.336263548569</v>
       </c>
       <c r="C41" t="n">
-        <v>351.6319015611917</v>
+        <v>1073.211672861839</v>
       </c>
       <c r="D41" t="n">
-        <v>58.5872416475372</v>
+        <v>805.6548266458916</v>
       </c>
       <c r="E41" t="n">
-        <v>58.5872416475372</v>
+        <v>805.6548266458916</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>270.91729958599</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>983.508699398228</v>
       </c>
       <c r="M41" t="n">
-        <v>2034.355257957088</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N41" t="n">
-        <v>2759.372373345361</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O41" t="n">
-        <v>2929.36208237686</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2707.155598323719</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2707.155598323719</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V41" t="n">
-        <v>2357.3180436602</v>
+        <v>3078.897814960847</v>
       </c>
       <c r="W41" t="n">
-        <v>1973.557742795368</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X41" t="n">
-        <v>1572.914344964321</v>
+        <v>2294.494116264968</v>
       </c>
       <c r="Y41" t="n">
-        <v>1171.977671912411</v>
+        <v>1893.557443213058</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>719.6754135668255</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.692528955098</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.692528955098</v>
+        <v>1608.462181258203</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>229.6806140858207</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="C43" t="n">
-        <v>58.5872416475372</v>
+        <v>3003.489263458585</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>2843.994618781495</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>2683.083803649815</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>2589.600856908681</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>2422.350465834224</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>2272.743010639681</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744007</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.192998592009</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.031780986259</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3600.523143040256</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="T43" t="n">
-        <v>1528.513731842852</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="U43" t="n">
-        <v>1245.715584388976</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="V43" t="n">
-        <v>971.8298393284983</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="W43" t="n">
-        <v>692.7601748373727</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="X43" t="n">
-        <v>454.416312697056</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="Y43" t="n">
-        <v>229.6806140858207</v>
+        <v>3174.582635896869</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1258.903080759653</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C44" t="n">
-        <v>888.3459378010175</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D44" t="n">
-        <v>888.3459378010175</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3459378010175</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F44" t="n">
-        <v>467.315525754705</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>2034.355257957088</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>2245.17458027019</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>2444.243452507442</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>2060.48315164261</v>
+        <v>3655.113097377279</v>
       </c>
       <c r="X44" t="n">
-        <v>1659.839753811563</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="Y44" t="n">
-        <v>1258.903080759653</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M45" t="n">
-        <v>783.60435703581</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N45" t="n">
-        <v>1508.621472424083</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>1438.76117969248</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>2000.46707218101</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2158.709018941773</v>
+        <v>842.6443077196632</v>
       </c>
       <c r="C46" t="n">
-        <v>2158.709018941773</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="D46" t="n">
-        <v>2158.709018941773</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="E46" t="n">
-        <v>1997.798203810093</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F46" t="n">
-        <v>1833.167077920684</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G46" t="n">
-        <v>1665.916686846227</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H46" t="n">
-        <v>1516.309231651684</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I46" t="n">
-        <v>1399.96318575601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>1414.045735161221</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>1568.598062883459</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>1828.495163163519</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>2117.759219604013</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>2398.598001998263</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>2658.158612324737</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>2863.834052574349</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>2929.36208237686</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>2844.08936405226</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>2657.69759593217</v>
+        <v>1493.42357486526</v>
       </c>
       <c r="T46" t="n">
-        <v>2418.148856908872</v>
+        <v>1493.42357486526</v>
       </c>
       <c r="U46" t="n">
-        <v>2346.408725335818</v>
+        <v>1493.42357486526</v>
       </c>
       <c r="V46" t="n">
-        <v>2346.408725335818</v>
+        <v>1493.42357486526</v>
       </c>
       <c r="W46" t="n">
-        <v>2346.408725335818</v>
+        <v>1493.42357486526</v>
       </c>
       <c r="X46" t="n">
-        <v>2346.408725335818</v>
+        <v>1255.079712724943</v>
       </c>
       <c r="Y46" t="n">
-        <v>2346.408725335818</v>
+        <v>1030.344014113708</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>311.1789406863389</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>498.8803612208102</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8058,28 +8060,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>643.1706503868309</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>113.340135161974</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>429.3564034215989</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>506.7193118784897</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,13 +8537,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>745.891489178132</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
@@ -8696,22 +8698,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>224.3898313030402</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,13 +8777,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>466.5152372128204</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9014,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>660.231241700964</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7944283533855</v>
+        <v>174.140909451112</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9477,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9486,22 +9488,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N21" t="n">
-        <v>263.9099299663046</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>389.300405673794</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9960,13 +9962,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10431,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10598,7 +10600,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P35" t="n">
         <v>628.1510783507341</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>75.97815626606008</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>389.300405673794</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11060,22 +11062,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>288.3297051870483</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>264.8965524252774</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11145,13 +11147,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>724.8059320736758</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11303,13 +11305,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>305.8611011738946</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>676.6685272602837</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11318,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>72.63058859468208</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>129.5440744463918</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22720,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>93.42449318090664</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,16 +22843,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>315.9632427691816</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.3673972298128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300461</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.9984002179802</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23030,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>237.9354137837949</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23075,10 +23077,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23194,10 +23196,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>82.6861730734062</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.4844235510005</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>72.63058859468214</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8593850685612</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>388.086528226806</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>85.56825063720166</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V17" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23902,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>163.0869626152796</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23938,16 +23940,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>24.13094430738749</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5920803845231</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24212,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>141.1082051732382</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>93.42449318090749</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>76.57499550861168</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>70.43669735679242</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -24661,10 +24663,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>152.0991456492723</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176241</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>49.19646844041395</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25126,7 +25128,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>208.1860086605933</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3.08319717252283</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.8394155455415</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25397,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>222.4997066824612</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>53.42716423559462</v>
       </c>
       <c r="F40" t="n">
-        <v>56.01419322081109</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25606,16 +25608,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>110.3050772933521</v>
+        <v>135.5380128540822</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25679,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>70.43669735679232</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>178.2755692717851</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>39.17177325081366</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -25922,10 +25924,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.5467615084811</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>75.93352384582987</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>208.9474357220128</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26086,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>545883.8011167705</v>
+        <v>617475.2680967038</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>545883.8011167708</v>
+        <v>617475.2680967039</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>545883.8011167706</v>
+        <v>617475.2680967038</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>545883.8011167704</v>
+        <v>617475.2680967038</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>545883.8011167706</v>
+        <v>617475.2680967038</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>709884.0478911443</v>
+        <v>709884.0478911442</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>709884.0478911442</v>
+        <v>709884.0478911441</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>709884.0478911442</v>
+        <v>709884.0478911441</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>709884.0478911442</v>
+        <v>709884.0478911441</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>709884.0478911442</v>
+        <v>709884.0478911443</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>709884.0478911442</v>
+        <v>709884.0478911441</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>545883.8011167706</v>
+        <v>617475.2680967036</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>545883.8011167704</v>
+        <v>617475.2680967039</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="C2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351233</v>
       </c>
       <c r="D2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="E2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351231</v>
       </c>
       <c r="F2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351233</v>
       </c>
       <c r="G2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="H2" t="n">
         <v>318613.5342886033</v>
       </c>
       <c r="I2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="J2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="K2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="L2" t="n">
         <v>318613.5342886032</v>
@@ -26347,13 +26349,13 @@
         <v>318613.5342886032</v>
       </c>
       <c r="N2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="O2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.062935123</v>
       </c>
       <c r="P2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351231</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363268</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="C4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155124</v>
       </c>
       <c r="D4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="E4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="F4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="P4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274582</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274582</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90413.86574920885</v>
+        <v>-134735.9584912176</v>
       </c>
       <c r="C6" t="n">
-        <v>155010.2865338862</v>
+        <v>174062.7831208262</v>
       </c>
       <c r="D6" t="n">
-        <v>155010.2865338863</v>
+        <v>174062.7831208261</v>
       </c>
       <c r="E6" t="n">
-        <v>188637.8865338863</v>
+        <v>207690.383120826</v>
       </c>
       <c r="F6" t="n">
-        <v>188637.8865338863</v>
+        <v>207690.3831208262</v>
       </c>
       <c r="G6" t="n">
-        <v>113547.765874552</v>
+        <v>165379.5539530333</v>
       </c>
       <c r="H6" t="n">
         <v>232282.950306666</v>
       </c>
       <c r="I6" t="n">
-        <v>232282.950306666</v>
+        <v>232282.9503066658</v>
       </c>
       <c r="J6" t="n">
-        <v>40670.44713631306</v>
+        <v>-8808.642781070725</v>
       </c>
       <c r="K6" t="n">
-        <v>232282.950306666</v>
+        <v>232282.9503066659</v>
       </c>
       <c r="L6" t="n">
         <v>232282.950306666</v>
       </c>
       <c r="M6" t="n">
+        <v>232282.950306666</v>
+      </c>
+      <c r="N6" t="n">
         <v>232282.9503066659</v>
       </c>
-      <c r="N6" t="n">
-        <v>232282.950306666</v>
-      </c>
       <c r="O6" t="n">
-        <v>188637.8865338864</v>
+        <v>207690.383120826</v>
       </c>
       <c r="P6" t="n">
-        <v>188637.8865338863</v>
+        <v>207690.383120826</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412141</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412141</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>222.0425510131218</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>403.3949631579654</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6063666484134</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>24.20374548875686</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>371.6049244215989</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>417.5829222052726</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>688.3272054397146</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
@@ -35416,22 +35418,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>130.7404680221561</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>373.2250127557749</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>602.479762700964</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6010349596355</v>
+        <v>120.947516057362</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N21" t="n">
-        <v>210.7165365725546</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>333.1858818629449</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P35" t="n">
         <v>534.50171506985</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>18.22667726606008</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>333.1858818629449</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>199.1933155138312</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>171.7067767994943</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>667.0544530736757</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38023,13 +38025,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>212.9488104172752</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>583.4787516345006</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1279008.168850631</v>
+        <v>1276499.817124719</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446149</v>
+        <v>5562152.400446144</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4028287.523710871</v>
+        <v>4028287.523710873</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7671771.456933504</v>
+        <v>7671771.456933505</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>327.788702013188</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>131.1309806287563</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>351.5104180010174</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -916,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>30.37593634770247</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713472</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>289.4065464310217</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>178.8846941420544</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>41.24458363092522</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>237.2033710710782</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>235.168823803877</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>18.03243964103858</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1621,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>16.55447303929008</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>177.3516742227375</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.490924548432452</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>31.99018014062471</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.1707626729762</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>142.535930338006</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>166.7165542762725</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>165.9184445944652</v>
+        <v>216.6467621941107</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2952,19 +2952,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>17.28329306462838</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>77.88127677334217</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U35" t="n">
-        <v>119.8051733265733</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.9901801406238</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>105.8745427447691</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>24.66341075902485</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>264.8812777537878</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>104.1820546748635</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>92.54811727372233</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>30.37593634770202</v>
+        <v>3.12672136925154</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>108.594326593059</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>262.253757051989</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1125.848704289529</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C2" t="n">
-        <v>715.7241136027993</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D2" t="n">
-        <v>384.6244145995792</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E2" t="n">
-        <v>384.6244145995792</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="F2" t="n">
-        <v>384.6244145995792</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G2" t="n">
         <v>384.6244145995792</v>
@@ -4333,16 +4333,16 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>866.0608898040909</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L2" t="n">
-        <v>1265.421903330477</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M2" t="n">
-        <v>2041.74049432223</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N2" t="n">
-        <v>2794.921510960849</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O2" t="n">
         <v>2794.921510960849</v>
@@ -4357,25 +4357,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>3328.308302105817</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U2" t="n">
-        <v>3071.247810365327</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V2" t="n">
-        <v>2721.410255701808</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W2" t="n">
-        <v>2337.649954836976</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.006557005929</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y2" t="n">
-        <v>1536.069883954019</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>73.71591722729714</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M3" t="n">
-        <v>73.71591722729714</v>
+        <v>1577.781169841152</v>
       </c>
       <c r="N3" t="n">
-        <v>475.1381459967595</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O3" t="n">
-        <v>1179.095236542654</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P3" t="n">
-        <v>1740.801129031184</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q3" t="n">
-        <v>2090.645593715167</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
         <v>2120.205113077797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4518,22 +4518,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X4" t="n">
-        <v>1575.485172533713</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2443.311846829832</v>
+        <v>1644.89008036026</v>
       </c>
       <c r="C5" t="n">
-        <v>2033.187256143102</v>
+        <v>1234.76548967353</v>
       </c>
       <c r="D5" t="n">
-        <v>1628.723326236163</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="E5" t="n">
-        <v>1214.38311075306</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="F5" t="n">
-        <v>793.352698706747</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>384.6244145995792</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>611.8754183363367</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L5" t="n">
-        <v>1324.466818148575</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M5" t="n">
-        <v>2100.785409140329</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N5" t="n">
-        <v>2853.966425778947</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O5" t="n">
-        <v>3497.597282196052</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P5" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
@@ -4597,22 +4597,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U5" t="n">
-        <v>3685.795861364857</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V5" t="n">
-        <v>3655.113097377279</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W5" t="n">
-        <v>3655.113097377279</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="X5" t="n">
-        <v>3254.469699546231</v>
+        <v>2456.047933076659</v>
       </c>
       <c r="Y5" t="n">
-        <v>2853.533026494321</v>
+        <v>2055.111260024749</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L6" t="n">
-        <v>73.71591722729714</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M6" t="n">
-        <v>916.6929979218638</v>
+        <v>1770.594027403785</v>
       </c>
       <c r="N6" t="n">
-        <v>1790.351090033482</v>
+        <v>1770.594027403785</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.594027403785</v>
       </c>
       <c r="P6" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.594027403785</v>
       </c>
       <c r="Q6" t="n">
         <v>2120.205113077797</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
         <v>73.71591722729714</v>
@@ -4755,22 +4755,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U7" t="n">
-        <v>1603.114813848147</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V7" t="n">
-        <v>1603.114813848147</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W7" t="n">
-        <v>1603.114813848147</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X7" t="n">
-        <v>1575.485172533713</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>1350.749473922478</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1483.336263548569</v>
+        <v>1697.89274300619</v>
       </c>
       <c r="C8" t="n">
-        <v>1073.211672861839</v>
+        <v>1287.76815231946</v>
       </c>
       <c r="D8" t="n">
-        <v>668.7477429548999</v>
+        <v>995.4383074396397</v>
       </c>
       <c r="E8" t="n">
-        <v>254.4075274717966</v>
+        <v>581.0980919565365</v>
       </c>
       <c r="F8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="G8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
@@ -4807,49 +4807,49 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>611.8754183363367</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L8" t="n">
-        <v>1324.466818148575</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M8" t="n">
-        <v>2100.785409140329</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N8" t="n">
-        <v>2853.966425778947</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O8" t="n">
-        <v>3497.597282196052</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P8" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U8" t="n">
-        <v>3428.735369624367</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V8" t="n">
-        <v>3078.897814960848</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="W8" t="n">
-        <v>2695.137514096016</v>
+        <v>2909.693993553637</v>
       </c>
       <c r="X8" t="n">
-        <v>2294.494116264969</v>
+        <v>2509.050595722589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1893.557443213059</v>
+        <v>2108.113922670679</v>
       </c>
     </row>
     <row r="9">
@@ -4892,13 +4892,13 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>542.5899304202851</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N9" t="n">
-        <v>1416.248022531903</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="O9" t="n">
-        <v>2120.205113077797</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P9" t="n">
         <v>2120.205113077797</v>
@@ -4986,28 +4986,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W10" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X10" t="n">
-        <v>73.71591722729714</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.71591722729714</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1125.848704289529</v>
+        <v>1536.069883954019</v>
       </c>
       <c r="C11" t="n">
-        <v>715.7241136027993</v>
+        <v>1296.470519235758</v>
       </c>
       <c r="D11" t="n">
-        <v>311.2601836958598</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="E11" t="n">
-        <v>311.2601836958598</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="F11" t="n">
-        <v>311.2601836958598</v>
+        <v>470.976177282506</v>
       </c>
       <c r="G11" t="n">
-        <v>311.2601836958598</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
         <v>73.71591722729714</v>
@@ -5059,10 +5059,10 @@
         <v>3497.597282196052</v>
       </c>
       <c r="P11" t="n">
-        <v>3685.795861364857</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="Q11" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
         <v>3685.795861364857</v>
@@ -5129,13 +5129,13 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>542.5899304202851</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.248022531903</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P12" t="n">
         <v>2120.205113077797</v>
@@ -5223,25 +5223,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
         <v>73.71591722729714</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1740.396755289059</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C14" t="n">
-        <v>1330.272164602329</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D14" t="n">
-        <v>925.8082346953897</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E14" t="n">
-        <v>511.4680192122864</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F14" t="n">
-        <v>90.43760716597399</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G14" t="n">
         <v>73.71591722729714</v>
@@ -5366,16 +5366,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>916.6929979218638</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N15" t="n">
-        <v>1790.351090033482</v>
+        <v>504.6976653593895</v>
       </c>
       <c r="O15" t="n">
-        <v>1790.351090033482</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q15" t="n">
         <v>2120.205113077797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
         <v>73.71591722729714</v>
@@ -5466,22 +5466,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>1603.114813848147</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>1603.114813848147</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>1603.114813848147</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>1575.485172533713</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D17" t="n">
         <v>1648.251106699488</v>
@@ -5545,22 +5545,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4408.238733368956</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>4058.401178705436</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>3276.783860599928</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>3276.783860599928</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>3396.521901496716</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>4100.47899204261</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.8531555313633</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>95.75978309307982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>95.75978309307982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>95.75978309307982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>95.75978309307982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1196.702087168085</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1196.702087168085</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>917.6324226769595</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>679.288560536643</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>454.5528619254077</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>3084.569701873628</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N21" t="n">
-        <v>3958.227793985246</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1065.958701797119</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>827.6148396568026</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
         <v>1233.910891216385</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>592.7987223006619</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>1435.775802995229</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4105.773792315753</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3934.680419877469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4518.209197321033</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4293.473498709797</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6314,19 +6314,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4222.119838211426</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4222.119838211426</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4222.119838211426</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4222.119838211426</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4222.119838211426</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>912.5960014402549</v>
+        <v>574.8553404551301</v>
       </c>
       <c r="C31" t="n">
-        <v>895.138129657802</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="D31" t="n">
-        <v>735.6434849807119</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E31" t="n">
-        <v>574.7326698490315</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1015439596227</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G31" t="n">
         <v>242.8511528851661</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1543.974637974764</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>1543.974637974764</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.295707834299</v>
+        <v>1261.176490520888</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.295707834299</v>
+        <v>987.2907454604098</v>
       </c>
       <c r="W31" t="n">
-        <v>1100.295707834299</v>
+        <v>987.2907454604098</v>
       </c>
       <c r="X31" t="n">
-        <v>1100.295707834299</v>
+        <v>987.2907454604098</v>
       </c>
       <c r="Y31" t="n">
-        <v>1100.295707834299</v>
+        <v>762.5550468491745</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6782,22 +6782,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>285.8231762432845</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>946.9113481625727</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N33" t="n">
-        <v>754.331869609911</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O33" t="n">
-        <v>1458.288960155805</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P33" t="n">
-        <v>2019.994852644335</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6888,19 +6888,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
         <v>93.2436976906228</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U35" t="n">
-        <v>4183.681998679601</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3833.844444016082</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3450.08414315125</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3049.440745320202</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2648.504072268292</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>3084.569701873628</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>3958.227793985246</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7119,25 +7119,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1593.281623979807</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1167.341116836419</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>884.5429693825431</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>610.6572243220651</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>331.5875598309394</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
         <v>93.2436976906228</v>
@@ -7177,34 +7177,34 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674161</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
-        <v>1598.180070079654</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M38" t="n">
-        <v>2374.498661071407</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.903809325239</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.903809325239</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
         <v>4494.590496051882</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>3264.314802508572</v>
+        <v>385.2054556740427</v>
       </c>
       <c r="L39" t="n">
-        <v>3750.634527358626</v>
+        <v>385.2054556740427</v>
       </c>
       <c r="M39" t="n">
-        <v>3750.634527358626</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>3750.634527358626</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>3750.634527358626</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>798.0226983151792</v>
+        <v>731.1375931658965</v>
       </c>
       <c r="C40" t="n">
-        <v>798.0226983151792</v>
+        <v>560.044220727613</v>
       </c>
       <c r="D40" t="n">
-        <v>798.0226983151792</v>
+        <v>560.044220727613</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>399.1334055959325</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>234.5022797065238</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
         <v>209.5897435862967</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.092362806305</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W40" t="n">
-        <v>798.0226983151792</v>
+        <v>1157.181161700257</v>
       </c>
       <c r="X40" t="n">
-        <v>798.0226983151792</v>
+        <v>918.8372995599409</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.0226983151792</v>
+        <v>918.8372995599409</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.336263548569</v>
+        <v>1727.939419550611</v>
       </c>
       <c r="C41" t="n">
-        <v>1073.211672861839</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="D41" t="n">
-        <v>805.6548266458916</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>805.6548266458916</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>384.6244145995792</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
-        <v>384.6244145995792</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
         <v>73.71591722729714</v>
@@ -7411,28 +7411,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>270.91729958599</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>983.508699398228</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>1759.827290389982</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N41" t="n">
-        <v>2513.0083070286</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="O41" t="n">
-        <v>3156.639163445705</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P41" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q41" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
@@ -7447,16 +7447,16 @@
         <v>3428.735369624367</v>
       </c>
       <c r="V41" t="n">
-        <v>3078.897814960847</v>
+        <v>3323.500970962889</v>
       </c>
       <c r="W41" t="n">
-        <v>2695.137514096016</v>
+        <v>2939.740670098057</v>
       </c>
       <c r="X41" t="n">
-        <v>2294.494116264968</v>
+        <v>2539.09727226701</v>
       </c>
       <c r="Y41" t="n">
-        <v>1893.557443213058</v>
+        <v>2138.1605992151</v>
       </c>
     </row>
     <row r="42">
@@ -7496,19 +7496,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>734.8040891465854</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M42" t="n">
-        <v>734.8040891465854</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N42" t="n">
-        <v>1608.462181258203</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="O42" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P42" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q42" t="n">
         <v>2120.205113077797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3174.582635896869</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>3003.489263458585</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2843.994618781495</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2683.083803649815</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2589.600856908681</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2422.350465834224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2272.743010639681</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744007</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.192998592009</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.031780986259</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3600.523143040256</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3414.131374920167</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3174.582635896869</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3174.582635896869</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>3174.582635896869</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>3174.582635896869</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>3174.582635896869</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3174.582635896869</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>866.0608898040909</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>1578.652289616329</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.970880608083</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N44" t="n">
-        <v>3108.151897246701</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O44" t="n">
-        <v>3685.795861364857</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P44" t="n">
         <v>3685.795861364857</v>
@@ -7678,19 +7678,19 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U44" t="n">
-        <v>3685.795861364857</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V44" t="n">
-        <v>3685.795861364857</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W44" t="n">
-        <v>3655.113097377279</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.469699546231</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="Y44" t="n">
         <v>2853.533026494321</v>
@@ -7727,25 +7727,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>734.8040891465854</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M45" t="n">
-        <v>734.8040891465854</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>734.8040891465854</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>1438.76117969248</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>2000.46707218101</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
         <v>2120.205113077797</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>842.6443077196632</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
         <v>73.71591722729714</v>
@@ -7833,25 +7833,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1493.42357486526</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1493.42357486526</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1493.42357486526</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>1493.42357486526</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W46" t="n">
-        <v>1493.42357486526</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X46" t="n">
-        <v>1255.079712724943</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y46" t="n">
-        <v>1030.344014113708</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>498.8803612208102</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>853.701196452193</v>
+        <v>430.7701443371248</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
         <v>628.1510783507341</v>
@@ -8063,25 +8063,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>458.6703921507827</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>392.3436386874106</v>
       </c>
       <c r="M5" t="n">
         <v>877.4504173780091</v>
@@ -8233,13 +8233,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>409.835129286669</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8455,10 +8455,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>649.0966401699908</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,16 +8540,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>531.1743980747689</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>706.040592805458</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8707,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>283.7489381988693</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>239.1670705397989</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,16 +8777,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -9014,19 +9014,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170756</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9248,13 +9248,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>174.140909451112</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9488,19 +9488,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.174398074769</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>153.3437978591911</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10430,25 +10430,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>250.3505085953848</v>
       </c>
       <c r="L33" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10600,7 +10600,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
         <v>628.1510783507341</v>
@@ -10673,22 +10673,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.174398074769</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>322.8042452836262</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>350.7366494345345</v>
       </c>
       <c r="L39" t="n">
-        <v>547.3465691139345</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>288.3297051870483</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11071,19 +11071,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.701196452193</v>
+        <v>537.3068668705239</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,22 +11144,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>574.6635313430244</v>
+        <v>352.6623456499191</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11311,10 +11311,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>676.6685272602837</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,13 +11390,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22552,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.63058859468208</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>285.689127297093</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="5">
@@ -22789,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>48.90887260685264</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>315.9632427691816</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>194.7158398879882</v>
       </c>
     </row>
     <row r="8">
@@ -23026,13 +23026,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>111.0127441768483</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>237.9354137837949</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23041,7 +23041,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130045</v>
+        <v>194.7158398879882</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>168.8199737087843</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>72.63058859468214</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>388.086528226806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>388.086528226806</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0869626152796</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23940,16 +23940,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>222.4997066824603</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>24.13094430738749</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>93.42449318090749</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>70.43669735679242</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>88.57144222861982</v>
+        <v>37.84312462897432</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>152.0991456492723</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>106.6465736655467</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24906,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25128,7 +25128,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U35" t="n">
-        <v>134.6847134965117</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824612</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>53.42716423559462</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>140.9144764046872</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>135.5380128540822</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.1571244420206</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>70.43669735679232</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25918,22 +25918,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.5467615084811</v>
+        <v>376.7959764869316</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>75.93352384582987</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>8.893130557884263</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>617475.2680967038</v>
+        <v>617475.2680967039</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>617475.2680967038</v>
+        <v>617475.268096704</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>617475.2680967038</v>
+        <v>617475.2680967039</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>617475.2680967038</v>
+        <v>617475.2680967039</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>709884.0478911442</v>
+        <v>709884.0478911443</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>709884.0478911441</v>
+        <v>709884.0478911443</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>709884.0478911441</v>
+        <v>709884.0478911443</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>709884.0478911441</v>
+        <v>709884.0478911442</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>709884.0478911441</v>
+        <v>709884.0478911443</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>709884.0478911441</v>
+        <v>709884.0478911442</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>617475.2680967036</v>
+        <v>617475.2680967039</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>617475.2680967039</v>
+        <v>617475.268096704</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>277141.0629351232</v>
       </c>
       <c r="C2" t="n">
-        <v>277141.0629351233</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="D2" t="n">
         <v>277141.0629351232</v>
@@ -26328,19 +26328,19 @@
         <v>277141.0629351233</v>
       </c>
       <c r="G2" t="n">
+        <v>318613.5342886032</v>
+      </c>
+      <c r="H2" t="n">
+        <v>318613.5342886032</v>
+      </c>
+      <c r="I2" t="n">
         <v>318613.5342886033</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>318613.5342886033</v>
       </c>
-      <c r="I2" t="n">
-        <v>318613.5342886031</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>318613.5342886032</v>
-      </c>
-      <c r="K2" t="n">
-        <v>318613.5342886031</v>
       </c>
       <c r="L2" t="n">
         <v>318613.5342886032</v>
@@ -26349,13 +26349,13 @@
         <v>318613.5342886032</v>
       </c>
       <c r="N2" t="n">
-        <v>318613.5342886031</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="O2" t="n">
-        <v>277141.062935123</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="P2" t="n">
-        <v>277141.0629351231</v>
+        <v>277141.0629351233</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66903.39635363268</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>13426.58272155123</v>
       </c>
       <c r="C4" t="n">
-        <v>13426.58272155124</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="D4" t="n">
         <v>13426.58272155123</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>56024.09709274582</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>56024.09709274582</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134735.9584912176</v>
+        <v>-135105.0503172917</v>
       </c>
       <c r="C6" t="n">
-        <v>174062.7831208262</v>
+        <v>173693.6912947521</v>
       </c>
       <c r="D6" t="n">
-        <v>174062.7831208261</v>
+        <v>173693.6912947521</v>
       </c>
       <c r="E6" t="n">
-        <v>207690.383120826</v>
+        <v>207321.291294752</v>
       </c>
       <c r="F6" t="n">
-        <v>207690.3831208262</v>
+        <v>207321.2912947522</v>
       </c>
       <c r="G6" t="n">
-        <v>165379.5539530333</v>
+        <v>165198.9733603842</v>
       </c>
       <c r="H6" t="n">
-        <v>232282.950306666</v>
+        <v>232102.3697140169</v>
       </c>
       <c r="I6" t="n">
-        <v>232282.9503066658</v>
+        <v>232102.3697140169</v>
       </c>
       <c r="J6" t="n">
-        <v>-8808.642781070725</v>
+        <v>-8989.223373719775</v>
       </c>
       <c r="K6" t="n">
-        <v>232282.9503066659</v>
+        <v>232102.3697140168</v>
       </c>
       <c r="L6" t="n">
-        <v>232282.950306666</v>
+        <v>232102.3697140169</v>
       </c>
       <c r="M6" t="n">
-        <v>232282.950306666</v>
+        <v>232102.3697140169</v>
       </c>
       <c r="N6" t="n">
-        <v>232282.9503066659</v>
+        <v>232102.3697140169</v>
       </c>
       <c r="O6" t="n">
-        <v>207690.383120826</v>
+        <v>207321.2912947522</v>
       </c>
       <c r="P6" t="n">
-        <v>207690.383120826</v>
+        <v>207321.2912947522</v>
       </c>
     </row>
   </sheetData>
@@ -26828,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>921.4489653412141</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>921.4489653412141</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -34701,19 +34701,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>403.3949631579654</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>760.7889056955737</v>
+        <v>337.8578535805055</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
         <v>534.50171506985</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>405.4769987570327</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>296.8582406245658</v>
       </c>
       <c r="M5" t="n">
         <v>784.1601929209636</v>
@@ -34953,13 +34953,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.1425107818303</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>553.6112421071459</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>648.289113805458</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>190.0995749179851</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>149.1332661406468</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233256</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>120.947516057362</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363516</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>100.1504044654411</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>194.5247258107694</v>
       </c>
       <c r="L33" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37320,7 +37320,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
         <v>534.50171506985</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363516</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>265.0527662836262</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>199.1933155138312</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37791,19 +37791,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955737</v>
+        <v>444.3945761139046</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>516.9120523430244</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38031,10 +38031,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>583.4787516345006</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
